--- a/JPADSandBox_v2/out/ATR-72/PERFORMANCE/XCG_0.35/Performance_0.35.xlsx
+++ b/JPADSandBox_v2/out/ATR-72/PERFORMANCE/XCG_0.35/Performance_0.35.xlsx
@@ -6,14 +6,13 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="TAKE-OFF" r:id="rId3" sheetId="1"/>
-    <sheet name="MISSION PROFILE" r:id="rId4" sheetId="2"/>
+    <sheet name="MISSION PROFILE" r:id="rId3" sheetId="1"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="348">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="632" uniqueCount="328">
   <si>
     <t>Description</t>
   </si>
@@ -24,280 +23,220 @@
     <t>Value</t>
   </si>
   <si>
-    <t>Ground roll distance</t>
-  </si>
-  <si>
-    <t>m</t>
-  </si>
-  <si>
-    <t>Rotation distance</t>
-  </si>
-  <si>
-    <t>Airborne distance</t>
-  </si>
-  <si>
-    <t>AEO take-off distance</t>
-  </si>
-  <si>
-    <t>FAR-25 take-off field length</t>
-  </si>
-  <si>
-    <t>Balanced field length</t>
+    <t>Mission distance</t>
+  </si>
+  <si>
+    <t>nmi</t>
+  </si>
+  <si>
+    <t>Total mission distance (plus reserves)</t>
+  </si>
+  <si>
+    <t>Block time</t>
+  </si>
+  <si>
+    <t>min</t>
+  </si>
+  <si>
+    <t>Total mission duration</t>
+  </si>
+  <si>
+    <t>Aircraft mass at mission start</t>
+  </si>
+  <si>
+    <t>kg</t>
+  </si>
+  <si>
+    <t>Aircraft mass at mission end</t>
+  </si>
+  <si>
+    <t>Initial fuel mass for the assigned mission</t>
+  </si>
+  <si>
+    <t>Block fuel</t>
+  </si>
+  <si>
+    <t>Total fuel used</t>
+  </si>
+  <si>
+    <t>Fuel reserve</t>
+  </si>
+  <si>
+    <t>%</t>
+  </si>
+  <si>
+    <t>Design passengers number</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Passengers number for this mission</t>
   </si>
   <si>
     <t xml:space="preserve"> </t>
   </si>
   <si>
+    <t>Take-off range</t>
+  </si>
+  <si>
+    <t>Climb range</t>
+  </si>
+  <si>
+    <t>Cruise range</t>
+  </si>
+  <si>
+    <t>First descent range</t>
+  </si>
+  <si>
+    <t>Second climb range</t>
+  </si>
+  <si>
+    <t>Alternate cruise range</t>
+  </si>
+  <si>
+    <t>Second descent range</t>
+  </si>
+  <si>
+    <t>Holding range</t>
+  </si>
+  <si>
+    <t>Third descent range</t>
+  </si>
+  <si>
+    <t>Landing range</t>
+  </si>
+  <si>
+    <t>Altitude at take-off ending</t>
+  </si>
+  <si>
     <t>ft</t>
   </si>
   <si>
-    <t>Stall speed take-off (VsTO)</t>
-  </si>
-  <si>
-    <t>m/s</t>
-  </si>
-  <si>
-    <t>Decision speed (V1)</t>
-  </si>
-  <si>
-    <t>Rotation speed (V_Rot)</t>
-  </si>
-  <si>
-    <t>Minimum control speed (VMC)</t>
-  </si>
-  <si>
-    <t>Lift-off speed (V_LO)</t>
-  </si>
-  <si>
-    <t>Take-off safety speed (V2)</t>
+    <t>Altitude at climb ending</t>
+  </si>
+  <si>
+    <t>Altitude at cruise ending</t>
+  </si>
+  <si>
+    <t>Altitude at first descent ending</t>
+  </si>
+  <si>
+    <t>Altitude at second climb ending</t>
+  </si>
+  <si>
+    <t>Altitude at alternate cruise ending</t>
+  </si>
+  <si>
+    <t>Altitude at second descent ending</t>
+  </si>
+  <si>
+    <t>Altitude at holding ending</t>
+  </si>
+  <si>
+    <t>Altitude at third descent ending</t>
+  </si>
+  <si>
+    <t>Altitude at landing ending</t>
+  </si>
+  <si>
+    <t>Take-off duration</t>
+  </si>
+  <si>
+    <t>Climb duration</t>
+  </si>
+  <si>
+    <t>Cruise duration</t>
+  </si>
+  <si>
+    <t>First descent duration</t>
+  </si>
+  <si>
+    <t>Second climb duration</t>
+  </si>
+  <si>
+    <t>Alternate cruise duration</t>
+  </si>
+  <si>
+    <t>Second descent duration</t>
+  </si>
+  <si>
+    <t>Holding duration</t>
+  </si>
+  <si>
+    <t>Third descent duration</t>
+  </si>
+  <si>
+    <t>Landing duration</t>
+  </si>
+  <si>
+    <t>Take-off used fuel</t>
+  </si>
+  <si>
+    <t>Climb used fuel</t>
+  </si>
+  <si>
+    <t>Cruise used fuel</t>
+  </si>
+  <si>
+    <t>First descent used fuel</t>
+  </si>
+  <si>
+    <t>Second Climb used fuel</t>
+  </si>
+  <si>
+    <t>Alternate cruise used fuel</t>
+  </si>
+  <si>
+    <t>Second descent used fuel</t>
+  </si>
+  <si>
+    <t>Holding used fuel</t>
+  </si>
+  <si>
+    <t>Third descent used fuel</t>
+  </si>
+  <si>
+    <t>Landing used fuel</t>
+  </si>
+  <si>
+    <t>Aircraft weight at take-off start</t>
+  </si>
+  <si>
+    <t>Aircraft weight at climb start</t>
+  </si>
+  <si>
+    <t>Aircraft weight at cruise start</t>
+  </si>
+  <si>
+    <t>Aircraft weight at first descent start</t>
+  </si>
+  <si>
+    <t>Aircraft weight at second climb start</t>
+  </si>
+  <si>
+    <t>Aircraft weight at alternate cruise start</t>
+  </si>
+  <si>
+    <t>Aircraft weight at second descent start</t>
+  </si>
+  <si>
+    <t>Aircraft weight at holding start</t>
+  </si>
+  <si>
+    <t>Aircraft weight at third descnet start</t>
+  </si>
+  <si>
+    <t>Aircraft weight at landing start</t>
+  </si>
+  <si>
+    <t>TAKE-OFF</t>
+  </si>
+  <si>
+    <t>Speed (TAS) at take-off start</t>
   </si>
   <si>
     <t>kn</t>
-  </si>
-  <si>
-    <t>V1/VsTO</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>V_Rot/VsTO</t>
-  </si>
-  <si>
-    <t>VMC/VsTO</t>
-  </si>
-  <si>
-    <t>V_LO/VsTO</t>
-  </si>
-  <si>
-    <t>V2/VsTO</t>
-  </si>
-  <si>
-    <t>Take-off duration</t>
-  </si>
-  <si>
-    <t>s</t>
-  </si>
-  <si>
-    <t>Mission distance</t>
-  </si>
-  <si>
-    <t>nmi</t>
-  </si>
-  <si>
-    <t>Total mission distance (plus reserves)</t>
-  </si>
-  <si>
-    <t>Block time</t>
-  </si>
-  <si>
-    <t>min</t>
-  </si>
-  <si>
-    <t>Total mission duration</t>
-  </si>
-  <si>
-    <t>Aircraft mass at mission start</t>
-  </si>
-  <si>
-    <t>kg</t>
-  </si>
-  <si>
-    <t>Aircraft mass at mission end</t>
-  </si>
-  <si>
-    <t>Initial fuel mass for the assigned mission</t>
-  </si>
-  <si>
-    <t>Block fuel</t>
-  </si>
-  <si>
-    <t>Total fuel used</t>
-  </si>
-  <si>
-    <t>Fuel reserve</t>
-  </si>
-  <si>
-    <t>%</t>
-  </si>
-  <si>
-    <t>Design passengers number</t>
-  </si>
-  <si>
-    <t>Passengers number for this mission</t>
-  </si>
-  <si>
-    <t>Take-off range</t>
-  </si>
-  <si>
-    <t>Climb range</t>
-  </si>
-  <si>
-    <t>Cruise range</t>
-  </si>
-  <si>
-    <t>First descent range</t>
-  </si>
-  <si>
-    <t>Second climb range</t>
-  </si>
-  <si>
-    <t>Alternate cruise range</t>
-  </si>
-  <si>
-    <t>Second descent range</t>
-  </si>
-  <si>
-    <t>Holding range</t>
-  </si>
-  <si>
-    <t>Third descent range</t>
-  </si>
-  <si>
-    <t>Landing range</t>
-  </si>
-  <si>
-    <t>Altitude at take-off ending</t>
-  </si>
-  <si>
-    <t>Altitude at climb ending</t>
-  </si>
-  <si>
-    <t>Altitude at cruise ending</t>
-  </si>
-  <si>
-    <t>Altitude at first descent ending</t>
-  </si>
-  <si>
-    <t>Altitude at second climb ending</t>
-  </si>
-  <si>
-    <t>Altitude at alternate cruise ending</t>
-  </si>
-  <si>
-    <t>Altitude at second descent ending</t>
-  </si>
-  <si>
-    <t>Altitude at holding ending</t>
-  </si>
-  <si>
-    <t>Altitude at third descent ending</t>
-  </si>
-  <si>
-    <t>Altitude at landing ending</t>
-  </si>
-  <si>
-    <t>Climb duration</t>
-  </si>
-  <si>
-    <t>Cruise duration</t>
-  </si>
-  <si>
-    <t>First descent duration</t>
-  </si>
-  <si>
-    <t>Second climb duration</t>
-  </si>
-  <si>
-    <t>Alternate cruise duration</t>
-  </si>
-  <si>
-    <t>Second descent duration</t>
-  </si>
-  <si>
-    <t>Holding duration</t>
-  </si>
-  <si>
-    <t>Third descent duration</t>
-  </si>
-  <si>
-    <t>Landing duration</t>
-  </si>
-  <si>
-    <t>Take-off used fuel</t>
-  </si>
-  <si>
-    <t>Climb used fuel</t>
-  </si>
-  <si>
-    <t>Cruise used fuel</t>
-  </si>
-  <si>
-    <t>First descent used fuel</t>
-  </si>
-  <si>
-    <t>Second Climb used fuel</t>
-  </si>
-  <si>
-    <t>Alternate cruise used fuel</t>
-  </si>
-  <si>
-    <t>Second descent used fuel</t>
-  </si>
-  <si>
-    <t>Holding used fuel</t>
-  </si>
-  <si>
-    <t>Third descent used fuel</t>
-  </si>
-  <si>
-    <t>Landing used fuel</t>
-  </si>
-  <si>
-    <t>Aircraft weight at take-off start</t>
-  </si>
-  <si>
-    <t>Aircraft weight at climb start</t>
-  </si>
-  <si>
-    <t>Aircraft weight at cruise start</t>
-  </si>
-  <si>
-    <t>Aircraft weight at first descent start</t>
-  </si>
-  <si>
-    <t>Aircraft weight at second climb start</t>
-  </si>
-  <si>
-    <t>Aircraft weight at alternate cruise start</t>
-  </si>
-  <si>
-    <t>Aircraft weight at second descent start</t>
-  </si>
-  <si>
-    <t>Aircraft weight at holding start</t>
-  </si>
-  <si>
-    <t>Aircraft weight at third descnet start</t>
-  </si>
-  <si>
-    <t>Aircraft weight at landing start</t>
-  </si>
-  <si>
-    <t>TAKE-OFF</t>
-  </si>
-  <si>
-    <t>Speed (TAS) at take-off start</t>
   </si>
   <si>
     <t>Speed (TAS) at take-off ending</t>
@@ -1147,7 +1086,7 @@
         <v>4</v>
       </c>
       <c r="C2" t="n">
-        <v>1073.4585289493607</v>
+        <v>199.99999999999994</v>
       </c>
     </row>
     <row r="3">
@@ -1158,7 +1097,7 @@
         <v>4</v>
       </c>
       <c r="C3" t="n">
-        <v>169.41916711349126</v>
+        <v>286.99999999999983</v>
       </c>
     </row>
     <row r="4">
@@ -1166,735 +1105,352 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C4" t="n">
-        <v>218.51539143850627</v>
+        <v>47.31811957156526</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
         <v>7</v>
       </c>
-      <c r="B5" t="s">
-        <v>4</v>
-      </c>
       <c r="C5" t="n">
-        <v>1461.3930875013582</v>
+        <v>119.75774015279512</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C6" t="n">
-        <v>1680.6020506265618</v>
+        <v>20739.31023985843</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C7" t="n">
-        <v>1627.9094398241705</v>
+        <v>19923.220735496572</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" t="s">
         <v>10</v>
+      </c>
+      <c r="C8" t="n">
+        <v>859.0444858700896</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="B9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C9" t="n">
-        <v>3521.845567419163</v>
+        <v>557.6939321736315</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="B10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C10" t="n">
-        <v>555.8371624458375</v>
+        <v>816.0922615765851</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="B11" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C11" t="n">
-        <v>716.9140139058604</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="B12" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C12" t="n">
-        <v>4794.5967437708605</v>
+        <v>68.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="B13" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C13" t="n">
-        <v>5513.7862553364885</v>
+        <v>68.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>9</v>
-      </c>
-      <c r="B14" t="s">
-        <v>11</v>
-      </c>
-      <c r="C14" t="n">
-        <v>5340.910235643605</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>10</v>
+        <v>21</v>
+      </c>
+      <c r="B15" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.539870902446295</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="C16" t="n">
-        <v>56.73938539838956</v>
+        <v>42.0066014903737</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="C17" t="n">
-        <v>61.113827303678285</v>
+        <v>112.11035228417435</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="B18" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="C18" t="n">
-        <v>61.27853623026071</v>
+        <v>45.0025692030686</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="B19" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="C19" t="n">
-        <v>46.34552822202177</v>
+        <v>17.041039580171486</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="B20" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>64.73245974639835</v>
+        <v>43.3823678310135</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="B21" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="C21" t="n">
-        <v>66.32493602428143</v>
+        <v>22.989883486825335</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>10</v>
+        <v>28</v>
+      </c>
+      <c r="B22" t="s">
+        <v>4</v>
+      </c>
+      <c r="C22" t="n">
+        <v>-2.8421709430404007E-14</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="B23" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="C23" t="n">
-        <v>110.29254181112441</v>
+        <v>3.5867091019896122</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="B24" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="C24" t="n">
-        <v>118.7957766162213</v>
+        <v>0.34060611993695034</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>15</v>
-      </c>
-      <c r="B25" t="s">
-        <v>19</v>
-      </c>
-      <c r="C25" t="n">
-        <v>119.11594515601436</v>
+        <v>20</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="B26" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="C26" t="n">
-        <v>90.08849978362764</v>
+        <v>34.999999999999986</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="B27" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="C27" t="n">
-        <v>125.8298353601696</v>
+        <v>16999.999999999993</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="B28" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="C28" t="n">
-        <v>128.9253616022749</v>
+        <v>16999.999999999993</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>10</v>
+        <v>35</v>
+      </c>
+      <c r="B29" t="s">
+        <v>32</v>
+      </c>
+      <c r="C29" t="n">
+        <v>1500.0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="B30" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="C30" t="n">
-        <v>1.0770970970970875</v>
+        <v>9999.999999999996</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="B31" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="C31" t="n">
-        <v>1.0799999999999996</v>
+        <v>9999.999999999996</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="B32" t="s">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="C32" t="n">
-        <v>0.8168140683338666</v>
+        <v>1500.0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="B33" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="C33" t="n">
-        <v>1.1408734742522544</v>
+        <v>1500.0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="B34" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="C34" t="n">
-        <v>1.1689399798497626</v>
+        <v>49.99999999999999</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>10</v>
+        <v>41</v>
+      </c>
+      <c r="B35" t="s">
+        <v>32</v>
+      </c>
+      <c r="C35" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>26</v>
-      </c>
-      <c r="B36" t="s">
-        <v>27</v>
-      </c>
-      <c r="C36" t="n">
-        <v>37.84746997877673</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="35"/>
-  <cols>
-    <col min="2" max="2" width="8.0" customWidth="true"/>
-    <col min="3" max="3" width="15.0" customWidth="true"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C2" t="n">
-        <v>199.99999999999994</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C3" t="n">
-        <v>286.99999999999983</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C4" t="n">
-        <v>47.31811957156526</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s">
-        <v>33</v>
-      </c>
-      <c r="B5" t="s">
-        <v>32</v>
-      </c>
-      <c r="C5" t="n">
-        <v>119.75774015279512</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s">
-        <v>34</v>
-      </c>
-      <c r="B6" t="s">
-        <v>35</v>
-      </c>
-      <c r="C6" t="n">
-        <v>20739.31023985843</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s">
-        <v>36</v>
-      </c>
-      <c r="B7" t="s">
-        <v>35</v>
-      </c>
-      <c r="C7" t="n">
-        <v>19923.220735496572</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s">
-        <v>37</v>
-      </c>
-      <c r="B8" t="s">
-        <v>35</v>
-      </c>
-      <c r="C8" t="n">
-        <v>859.0444858700896</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s">
-        <v>38</v>
-      </c>
-      <c r="B9" t="s">
-        <v>35</v>
-      </c>
-      <c r="C9" t="n">
-        <v>557.6939321736315</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s">
-        <v>39</v>
-      </c>
-      <c r="B10" t="s">
-        <v>35</v>
-      </c>
-      <c r="C10" t="n">
-        <v>816.0922615765851</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="s">
-        <v>40</v>
-      </c>
-      <c r="B11" t="s">
-        <v>41</v>
-      </c>
-      <c r="C11" t="n">
-        <v>5.0</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="s">
-        <v>42</v>
-      </c>
-      <c r="B12" t="s">
-        <v>21</v>
-      </c>
-      <c r="C12" t="n">
-        <v>68.0</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="s">
-        <v>43</v>
-      </c>
-      <c r="B13" t="s">
-        <v>21</v>
-      </c>
-      <c r="C13" t="n">
-        <v>68.0</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="s">
-        <v>44</v>
-      </c>
-      <c r="B15" t="s">
-        <v>29</v>
-      </c>
-      <c r="C15" t="n">
-        <v>0.539870902446295</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="s">
-        <v>45</v>
-      </c>
-      <c r="B16" t="s">
-        <v>29</v>
-      </c>
-      <c r="C16" t="n">
-        <v>42.0066014903737</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s">
-        <v>46</v>
-      </c>
-      <c r="B17" t="s">
-        <v>29</v>
-      </c>
-      <c r="C17" t="n">
-        <v>112.11035228417435</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="s">
-        <v>47</v>
-      </c>
-      <c r="B18" t="s">
-        <v>29</v>
-      </c>
-      <c r="C18" t="n">
-        <v>45.0025692030686</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="s">
-        <v>48</v>
-      </c>
-      <c r="B19" t="s">
-        <v>29</v>
-      </c>
-      <c r="C19" t="n">
-        <v>17.041039580171486</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="s">
-        <v>49</v>
-      </c>
-      <c r="B20" t="s">
-        <v>29</v>
-      </c>
-      <c r="C20" t="n">
-        <v>43.3823678310135</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="s">
-        <v>50</v>
-      </c>
-      <c r="B21" t="s">
-        <v>29</v>
-      </c>
-      <c r="C21" t="n">
-        <v>22.989883486825335</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="s">
-        <v>51</v>
-      </c>
-      <c r="B22" t="s">
-        <v>29</v>
-      </c>
-      <c r="C22" t="n">
-        <v>-2.8421709430404007E-14</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="s">
-        <v>52</v>
-      </c>
-      <c r="B23" t="s">
-        <v>29</v>
-      </c>
-      <c r="C23" t="n">
-        <v>3.5867091019896122</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="s">
-        <v>53</v>
-      </c>
-      <c r="B24" t="s">
-        <v>29</v>
-      </c>
-      <c r="C24" t="n">
-        <v>0.34060611993695034</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="s">
-        <v>54</v>
-      </c>
-      <c r="B26" t="s">
-        <v>11</v>
-      </c>
-      <c r="C26" t="n">
-        <v>34.999999999999986</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="s">
-        <v>55</v>
-      </c>
-      <c r="B27" t="s">
-        <v>11</v>
-      </c>
-      <c r="C27" t="n">
-        <v>16999.999999999993</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="s">
-        <v>56</v>
-      </c>
-      <c r="B28" t="s">
-        <v>11</v>
-      </c>
-      <c r="C28" t="n">
-        <v>16999.999999999993</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="s">
-        <v>57</v>
-      </c>
-      <c r="B29" t="s">
-        <v>11</v>
-      </c>
-      <c r="C29" t="n">
-        <v>1500.0</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="s">
-        <v>58</v>
-      </c>
-      <c r="B30" t="s">
-        <v>11</v>
-      </c>
-      <c r="C30" t="n">
-        <v>9999.999999999996</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="s">
-        <v>59</v>
-      </c>
-      <c r="B31" t="s">
-        <v>11</v>
-      </c>
-      <c r="C31" t="n">
-        <v>9999.999999999996</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="s">
-        <v>60</v>
-      </c>
-      <c r="B32" t="s">
-        <v>11</v>
-      </c>
-      <c r="C32" t="n">
-        <v>1500.0</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="s">
-        <v>61</v>
-      </c>
-      <c r="B33" t="s">
-        <v>11</v>
-      </c>
-      <c r="C33" t="n">
-        <v>1500.0</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="s">
-        <v>62</v>
-      </c>
-      <c r="B34" t="s">
-        <v>11</v>
-      </c>
-      <c r="C34" t="n">
-        <v>49.99999999999999</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="s">
-        <v>63</v>
-      </c>
-      <c r="B35" t="s">
-        <v>11</v>
-      </c>
-      <c r="C35" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="B37" t="s">
-        <v>32</v>
+        <v>7</v>
       </c>
       <c r="C37" t="n">
         <v>0.46367518306771327</v>
@@ -1902,10 +1458,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>64</v>
+        <v>43</v>
       </c>
       <c r="B38" t="s">
-        <v>32</v>
+        <v>7</v>
       </c>
       <c r="C38" t="n">
         <v>12.842447448434623</v>
@@ -1913,10 +1469,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>65</v>
+        <v>44</v>
       </c>
       <c r="B39" t="s">
-        <v>32</v>
+        <v>7</v>
       </c>
       <c r="C39" t="n">
         <v>23.522925169306742</v>
@@ -1924,10 +1480,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>66</v>
+        <v>45</v>
       </c>
       <c r="B40" t="s">
-        <v>32</v>
+        <v>7</v>
       </c>
       <c r="C40" t="n">
         <v>10.333333333333325</v>
@@ -1935,10 +1491,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>67</v>
+        <v>46</v>
       </c>
       <c r="B41" t="s">
-        <v>32</v>
+        <v>7</v>
       </c>
       <c r="C41" t="n">
         <v>5.526163326769687</v>
@@ -1946,10 +1502,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>68</v>
+        <v>47</v>
       </c>
       <c r="B42" t="s">
-        <v>32</v>
+        <v>7</v>
       </c>
       <c r="C42" t="n">
         <v>15.280123921126883</v>
@@ -1957,10 +1513,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>69</v>
+        <v>48</v>
       </c>
       <c r="B43" t="s">
-        <v>32</v>
+        <v>7</v>
       </c>
       <c r="C43" t="n">
         <v>5.66666666666665</v>
@@ -1968,10 +1524,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>70</v>
+        <v>49</v>
       </c>
       <c r="B44" t="s">
-        <v>32</v>
+        <v>7</v>
       </c>
       <c r="C44" t="n">
         <v>44.99999999999997</v>
@@ -1979,10 +1535,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>71</v>
+        <v>50</v>
       </c>
       <c r="B45" t="s">
-        <v>32</v>
+        <v>7</v>
       </c>
       <c r="C45" t="n">
         <v>0.9666666666666615</v>
@@ -1990,10 +1546,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>72</v>
+        <v>51</v>
       </c>
       <c r="B46" t="s">
-        <v>32</v>
+        <v>7</v>
       </c>
       <c r="C46" t="n">
         <v>0.15573843742284765</v>
@@ -2001,15 +1557,15 @@
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>73</v>
+        <v>52</v>
       </c>
       <c r="B48" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="C48" t="n">
         <v>8.587171393878277</v>
@@ -2017,10 +1573,10 @@
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>74</v>
+        <v>53</v>
       </c>
       <c r="B49" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="C49" t="n">
         <v>189.48421631369374</v>
@@ -2028,10 +1584,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>75</v>
+        <v>54</v>
       </c>
       <c r="B50" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="C50" t="n">
         <v>289.3770997540865</v>
@@ -2039,10 +1595,10 @@
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>76</v>
+        <v>55</v>
       </c>
       <c r="B51" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="C51" t="n">
         <v>69.83273785280247</v>
@@ -2050,10 +1606,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>77</v>
+        <v>56</v>
       </c>
       <c r="B52" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="C52" t="n">
         <v>88.12802158547794</v>
@@ -2061,10 +1617,10 @@
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>78</v>
+        <v>57</v>
       </c>
       <c r="B53" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="C53" t="n">
         <v>40.71265162421622</v>
@@ -2072,10 +1628,10 @@
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>79</v>
+        <v>58</v>
       </c>
       <c r="B54" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="C54" t="n">
         <v>36.779145283092646</v>
@@ -2083,10 +1639,10 @@
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>80</v>
+        <v>59</v>
       </c>
       <c r="B55" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="C55" t="n">
         <v>88.05343634157174</v>
@@ -2094,10 +1650,10 @@
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="B56" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="C56" t="n">
         <v>4.725074568595062</v>
@@ -2105,10 +1661,10 @@
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="B57" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="C57" t="n">
         <v>0.41270685917055516</v>
@@ -2116,15 +1672,15 @@
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>83</v>
+        <v>62</v>
       </c>
       <c r="B59" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="C59" t="n">
         <v>20730.725825679292</v>
@@ -2132,10 +1688,10 @@
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>84</v>
+        <v>63</v>
       </c>
       <c r="B60" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="C60" t="n">
         <v>20541.2416093656</v>
@@ -2143,10 +1699,10 @@
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>85</v>
+        <v>64</v>
       </c>
       <c r="B61" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="C61" t="n">
         <v>20251.86450961151</v>
@@ -2154,10 +1710,10 @@
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>86</v>
+        <v>65</v>
       </c>
       <c r="B62" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="C62" t="n">
         <v>20182.03177175871</v>
@@ -2165,10 +1721,10 @@
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>87</v>
+        <v>66</v>
       </c>
       <c r="B63" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="C63" t="n">
         <v>20642.597804093813</v>
@@ -2176,10 +1732,10 @@
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>88</v>
+        <v>67</v>
       </c>
       <c r="B64" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="C64" t="n">
         <v>20053.19109854901</v>
@@ -2187,10 +1743,10 @@
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>89</v>
+        <v>68</v>
       </c>
       <c r="B65" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="C65" t="n">
         <v>20016.411953265913</v>
@@ -2198,10 +1754,10 @@
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>90</v>
+        <v>69</v>
       </c>
       <c r="B66" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="C66" t="n">
         <v>19928.358516924338</v>
@@ -2209,10 +1765,10 @@
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>91</v>
+        <v>70</v>
       </c>
       <c r="B67" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="C67" t="n">
         <v>19923.633442355742</v>
@@ -2220,10 +1776,10 @@
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>92</v>
+        <v>71</v>
       </c>
       <c r="B68" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="C68" t="n">
         <v>19923.220735496572</v>
@@ -2231,20 +1787,20 @@
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>93</v>
+        <v>72</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>94</v>
+        <v>73</v>
       </c>
       <c r="B71" t="s">
-        <v>19</v>
+        <v>74</v>
       </c>
       <c r="C71" t="n">
         <v>5.839362748749962E-4</v>
@@ -2252,10 +1808,10 @@
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="B72" t="s">
-        <v>19</v>
+        <v>74</v>
       </c>
       <c r="C72" t="n">
         <v>121.52915414098028</v>
@@ -2263,10 +1819,10 @@
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>96</v>
+        <v>76</v>
       </c>
       <c r="B73" t="s">
-        <v>19</v>
+        <v>74</v>
       </c>
       <c r="C73" t="n">
         <v>5.836373037022984E-4</v>
@@ -2274,10 +1830,10 @@
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>97</v>
+        <v>77</v>
       </c>
       <c r="B74" t="s">
-        <v>19</v>
+        <v>74</v>
       </c>
       <c r="C74" t="n">
         <v>121.46693208817447</v>
@@ -2285,10 +1841,10 @@
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>98</v>
+        <v>78</v>
       </c>
       <c r="B75" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C75" t="n">
         <v>8.827743275243179E-7</v>
@@ -2296,10 +1852,10 @@
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>99</v>
+        <v>79</v>
       </c>
       <c r="B76" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C76" t="n">
         <v>0.1837456119957836</v>
@@ -2307,10 +1863,10 @@
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="B77" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C77" t="n">
         <v>0.982</v>
@@ -2318,10 +1874,10 @@
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="B78" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C78" t="n">
         <v>1.9489229427241028</v>
@@ -2329,10 +1885,10 @@
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>102</v>
+        <v>82</v>
       </c>
       <c r="B79" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C79" t="n">
         <v>0.08397904133698024</v>
@@ -2340,10 +1896,10 @@
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>103</v>
+        <v>83</v>
       </c>
       <c r="B80" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C80" t="n">
         <v>0.17791819874271336</v>
@@ -2351,10 +1907,10 @@
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>104</v>
+        <v>84</v>
       </c>
       <c r="B81" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C81" t="n">
         <v>11.693393784522467</v>
@@ -2362,10 +1918,10 @@
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>105</v>
+        <v>85</v>
       </c>
       <c r="B82" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C82" t="n">
         <v>10.954039308493847</v>
@@ -2373,10 +1929,10 @@
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>106</v>
+        <v>86</v>
       </c>
       <c r="B83" t="s">
-        <v>107</v>
+        <v>87</v>
       </c>
       <c r="C83" t="n">
         <v>15377.591611420341</v>
@@ -2384,10 +1940,10 @@
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>108</v>
+        <v>88</v>
       </c>
       <c r="B84" t="s">
-        <v>107</v>
+        <v>87</v>
       </c>
       <c r="C84" t="n">
         <v>10330.513218363696</v>
@@ -2395,10 +1951,10 @@
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>109</v>
+        <v>89</v>
       </c>
       <c r="B85" t="s">
-        <v>107</v>
+        <v>87</v>
       </c>
       <c r="C85" t="n">
         <v>5.334115666695753E-8</v>
@@ -2406,10 +1962,10 @@
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="B86" t="s">
-        <v>107</v>
+        <v>87</v>
       </c>
       <c r="C86" t="n">
         <v>4081.686839316735</v>
@@ -2417,10 +1973,10 @@
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>111</v>
+        <v>91</v>
       </c>
       <c r="B87" t="s">
-        <v>112</v>
+        <v>92</v>
       </c>
       <c r="C87" t="n">
         <v>0.0</v>
@@ -2428,10 +1984,10 @@
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>113</v>
+        <v>93</v>
       </c>
       <c r="B88" t="s">
-        <v>112</v>
+        <v>92</v>
       </c>
       <c r="C88" t="n">
         <v>1809.770524404737</v>
@@ -2439,10 +1995,10 @@
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>114</v>
+        <v>94</v>
       </c>
       <c r="B89" t="s">
-        <v>115</v>
+        <v>95</v>
       </c>
       <c r="C89" t="n">
         <v>0.0</v>
@@ -2450,10 +2006,10 @@
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>116</v>
+        <v>96</v>
       </c>
       <c r="B90" t="s">
-        <v>115</v>
+        <v>95</v>
       </c>
       <c r="C90" t="n">
         <v>8.45607172223442</v>
@@ -2461,10 +2017,10 @@
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>117</v>
+        <v>97</v>
       </c>
       <c r="B91" t="s">
-        <v>118</v>
+        <v>98</v>
       </c>
       <c r="C91" t="n">
         <v>2439.877822483004</v>
@@ -2472,10 +2028,10 @@
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>119</v>
+        <v>99</v>
       </c>
       <c r="B92" t="s">
-        <v>118</v>
+        <v>98</v>
       </c>
       <c r="C92" t="n">
         <v>2447.238811530905</v>
@@ -2483,10 +2039,10 @@
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="B93" t="s">
-        <v>121</v>
+        <v>101</v>
       </c>
       <c r="C93" t="n">
         <v>0.15866449598459886</v>
@@ -2494,10 +2050,10 @@
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>122</v>
+        <v>102</v>
       </c>
       <c r="B94" t="s">
-        <v>121</v>
+        <v>101</v>
       </c>
       <c r="C94" t="n">
         <v>0.23689421423716409</v>
@@ -2505,20 +2061,20 @@
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>123</v>
+        <v>103</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>124</v>
+        <v>104</v>
       </c>
       <c r="B97" t="s">
-        <v>19</v>
+        <v>74</v>
       </c>
       <c r="C97" t="n">
         <v>170.08708336330832</v>
@@ -2526,10 +2082,10 @@
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>125</v>
+        <v>105</v>
       </c>
       <c r="B98" t="s">
-        <v>19</v>
+        <v>74</v>
       </c>
       <c r="C98" t="n">
         <v>221.42228217081782</v>
@@ -2537,10 +2093,10 @@
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>126</v>
+        <v>106</v>
       </c>
       <c r="B99" t="s">
-        <v>19</v>
+        <v>74</v>
       </c>
       <c r="C99" t="n">
         <v>169.99999999999994</v>
@@ -2548,10 +2104,10 @@
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>127</v>
+        <v>107</v>
       </c>
       <c r="B100" t="s">
-        <v>19</v>
+        <v>74</v>
       </c>
       <c r="C100" t="n">
         <v>169.99999999999994</v>
@@ -2559,10 +2115,10 @@
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>128</v>
+        <v>108</v>
       </c>
       <c r="B101" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C101" t="n">
         <v>0.2571316718913541</v>
@@ -2570,10 +2126,10 @@
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>129</v>
+        <v>109</v>
       </c>
       <c r="B102" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C102" t="n">
         <v>0.35618326755295066</v>
@@ -2581,10 +2137,10 @@
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="B103" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C103" t="n">
         <v>0.710646346218348</v>
@@ -2592,10 +2148,10 @@
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>131</v>
+        <v>111</v>
       </c>
       <c r="B104" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C104" t="n">
         <v>0.7048724714480487</v>
@@ -2603,10 +2159,10 @@
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>132</v>
+        <v>112</v>
       </c>
       <c r="B105" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C105" t="n">
         <v>0.04414255901450273</v>
@@ -2614,10 +2170,10 @@
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>133</v>
+        <v>113</v>
       </c>
       <c r="B106" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C106" t="n">
         <v>0.0438771395895606</v>
@@ -2625,10 +2181,10 @@
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>134</v>
+        <v>114</v>
       </c>
       <c r="B107" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C107" t="n">
         <v>16.09889326952862</v>
@@ -2636,10 +2192,10 @@
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>135</v>
+        <v>115</v>
       </c>
       <c r="B108" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C108" t="n">
         <v>16.064686031077432</v>
@@ -2647,10 +2203,10 @@
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>136</v>
+        <v>116</v>
       </c>
       <c r="B109" t="s">
-        <v>107</v>
+        <v>87</v>
       </c>
       <c r="C109" t="n">
         <v>7250.50282878372</v>
@@ -2658,10 +2214,10 @@
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>137</v>
+        <v>117</v>
       </c>
       <c r="B110" t="s">
-        <v>107</v>
+        <v>87</v>
       </c>
       <c r="C110" t="n">
         <v>5193.138128093027</v>
@@ -2669,10 +2225,10 @@
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>138</v>
+        <v>118</v>
       </c>
       <c r="B111" t="s">
-        <v>107</v>
+        <v>87</v>
       </c>
       <c r="C111" t="n">
         <v>2837.409565459175</v>
@@ -2680,10 +2236,10 @@
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>139</v>
+        <v>119</v>
       </c>
       <c r="B112" t="s">
-        <v>107</v>
+        <v>87</v>
       </c>
       <c r="C112" t="n">
         <v>2822.984490031163</v>
@@ -2691,10 +2247,10 @@
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="B113" t="s">
-        <v>112</v>
+        <v>92</v>
       </c>
       <c r="C113" t="n">
         <v>1661.8392697842733</v>
@@ -2702,10 +2258,10 @@
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>141</v>
+        <v>121</v>
       </c>
       <c r="B114" t="s">
-        <v>112</v>
+        <v>92</v>
       </c>
       <c r="C114" t="n">
         <v>773.8441311757952</v>
@@ -2713,10 +2269,10 @@
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>142</v>
+        <v>122</v>
       </c>
       <c r="B115" t="s">
-        <v>115</v>
+        <v>95</v>
       </c>
       <c r="C115" t="n">
         <v>5.536600567586001</v>
@@ -2724,10 +2280,10 @@
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>143</v>
+        <v>123</v>
       </c>
       <c r="B116" t="s">
-        <v>115</v>
+        <v>95</v>
       </c>
       <c r="C116" t="n">
         <v>1.9777495162613457</v>
@@ -2735,10 +2291,10 @@
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>144</v>
+        <v>124</v>
       </c>
       <c r="B117" t="s">
-        <v>118</v>
+        <v>98</v>
       </c>
       <c r="C117" t="n">
         <v>2273.4337811812075</v>
@@ -2746,10 +2302,10 @@
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>145</v>
+        <v>125</v>
       </c>
       <c r="B118" t="s">
-        <v>118</v>
+        <v>98</v>
       </c>
       <c r="C118" t="n">
         <v>1626.5887527030413</v>
@@ -2757,10 +2313,10 @@
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>146</v>
+        <v>126</v>
       </c>
       <c r="B119" t="s">
-        <v>121</v>
+        <v>101</v>
       </c>
       <c r="C119" t="n">
         <v>0.31355532641900624</v>
@@ -2768,10 +2324,10 @@
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>147</v>
+        <v>127</v>
       </c>
       <c r="B120" t="s">
-        <v>121</v>
+        <v>101</v>
       </c>
       <c r="C120" t="n">
         <v>0.3132188500636591</v>
@@ -2779,20 +2335,20 @@
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>148</v>
+        <v>128</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>149</v>
+        <v>129</v>
       </c>
       <c r="B123" t="s">
-        <v>19</v>
+        <v>74</v>
       </c>
       <c r="C123" t="n">
         <v>285.9602319287343</v>
@@ -2800,10 +2356,10 @@
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>150</v>
+        <v>130</v>
       </c>
       <c r="B124" t="s">
-        <v>19</v>
+        <v>74</v>
       </c>
       <c r="C124" t="n">
         <v>285.9602319287343</v>
@@ -2811,10 +2367,10 @@
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>151</v>
+        <v>131</v>
       </c>
       <c r="B125" t="s">
-        <v>19</v>
+        <v>74</v>
       </c>
       <c r="C125" t="n">
         <v>285.9602365663478</v>
@@ -2822,10 +2378,10 @@
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>152</v>
+        <v>132</v>
       </c>
       <c r="B126" t="s">
-        <v>19</v>
+        <v>74</v>
       </c>
       <c r="C126" t="n">
         <v>285.9602365663478</v>
@@ -2833,10 +2389,10 @@
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>153</v>
+        <v>133</v>
       </c>
       <c r="B127" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C127" t="n">
         <v>0.45999999999999985</v>
@@ -2844,10 +2400,10 @@
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>154</v>
+        <v>134</v>
       </c>
       <c r="B128" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C128" t="n">
         <v>0.45999999999999985</v>
@@ -2855,10 +2411,10 @@
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>155</v>
+        <v>135</v>
       </c>
       <c r="B129" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C129" t="n">
         <v>0.4226120867491201</v>
@@ -2866,10 +2422,10 @@
     </row>
     <row r="130">
       <c r="A130" t="s">
-        <v>156</v>
+        <v>136</v>
       </c>
       <c r="B130" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C130" t="n">
         <v>0.4136472782293188</v>
@@ -2877,10 +2433,10 @@
     </row>
     <row r="131">
       <c r="A131" t="s">
-        <v>157</v>
+        <v>137</v>
       </c>
       <c r="B131" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C131" t="n">
         <v>0.0337082888954841</v>
@@ -2888,10 +2444,10 @@
     </row>
     <row r="132">
       <c r="A132" t="s">
-        <v>158</v>
+        <v>138</v>
       </c>
       <c r="B132" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C132" t="n">
         <v>0.033475055819373996</v>
@@ -2899,10 +2455,10 @@
     </row>
     <row r="133">
       <c r="A133" t="s">
-        <v>159</v>
+        <v>139</v>
       </c>
       <c r="B133" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C133" t="n">
         <v>12.537334305501856</v>
@@ -2910,10 +2466,10 @@
     </row>
     <row r="134">
       <c r="A134" t="s">
-        <v>160</v>
+        <v>140</v>
       </c>
       <c r="B134" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C134" t="n">
         <v>12.356880910409615</v>
@@ -2921,10 +2477,10 @@
     </row>
     <row r="135">
       <c r="A135" t="s">
-        <v>161</v>
+        <v>141</v>
       </c>
       <c r="B135" t="s">
-        <v>107</v>
+        <v>87</v>
       </c>
       <c r="C135" t="n">
         <v>3612.066554929118</v>
@@ -2932,10 +2488,10 @@
     </row>
     <row r="136">
       <c r="A136" t="s">
-        <v>162</v>
+        <v>142</v>
       </c>
       <c r="B136" t="s">
-        <v>107</v>
+        <v>87</v>
       </c>
       <c r="C136" t="n">
         <v>3587.074085084901</v>
@@ -2943,10 +2499,10 @@
     </row>
     <row r="137">
       <c r="A137" t="s">
-        <v>163</v>
+        <v>143</v>
       </c>
       <c r="B137" t="s">
-        <v>107</v>
+        <v>87</v>
       </c>
       <c r="C137" t="n">
         <v>3612.066554929118</v>
@@ -2954,10 +2510,10 @@
     </row>
     <row r="138">
       <c r="A138" t="s">
-        <v>164</v>
+        <v>144</v>
       </c>
       <c r="B138" t="s">
-        <v>107</v>
+        <v>87</v>
       </c>
       <c r="C138" t="n">
         <v>3587.074085084901</v>
@@ -2965,10 +2521,10 @@
     </row>
     <row r="139">
       <c r="A139" t="s">
-        <v>165</v>
+        <v>145</v>
       </c>
       <c r="B139" t="s">
-        <v>112</v>
+        <v>92</v>
       </c>
       <c r="C139" t="n">
         <v>0.0</v>
@@ -2976,10 +2532,10 @@
     </row>
     <row r="140">
       <c r="A140" t="s">
-        <v>166</v>
+        <v>146</v>
       </c>
       <c r="B140" t="s">
-        <v>112</v>
+        <v>92</v>
       </c>
       <c r="C140" t="n">
         <v>0.0</v>
@@ -2987,10 +2543,10 @@
     </row>
     <row r="141">
       <c r="A141" t="s">
-        <v>167</v>
+        <v>147</v>
       </c>
       <c r="B141" t="s">
-        <v>115</v>
+        <v>95</v>
       </c>
       <c r="C141" t="n">
         <v>0.0</v>
@@ -2998,10 +2554,10 @@
     </row>
     <row r="142">
       <c r="A142" t="s">
-        <v>168</v>
+        <v>148</v>
       </c>
       <c r="B142" t="s">
-        <v>115</v>
+        <v>95</v>
       </c>
       <c r="C142" t="n">
         <v>0.0</v>
@@ -3009,10 +2565,10 @@
     </row>
     <row r="143">
       <c r="A143" t="s">
-        <v>169</v>
+        <v>149</v>
       </c>
       <c r="B143" t="s">
-        <v>118</v>
+        <v>98</v>
       </c>
       <c r="C143" t="n">
         <v>1636.6476416242574</v>
@@ -3020,10 +2576,10 @@
     </row>
     <row r="144">
       <c r="A144" t="s">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="B144" t="s">
-        <v>118</v>
+        <v>98</v>
       </c>
       <c r="C144" t="n">
         <v>1614.077538892175</v>
@@ -3031,10 +2587,10 @@
     </row>
     <row r="145">
       <c r="A145" t="s">
-        <v>171</v>
+        <v>151</v>
       </c>
       <c r="B145" t="s">
-        <v>121</v>
+        <v>101</v>
       </c>
       <c r="C145" t="n">
         <v>0.4531056160609351</v>
@@ -3042,10 +2598,10 @@
     </row>
     <row r="146">
       <c r="A146" t="s">
-        <v>172</v>
+        <v>152</v>
       </c>
       <c r="B146" t="s">
-        <v>121</v>
+        <v>101</v>
       </c>
       <c r="C146" t="n">
         <v>0.44997050537749683</v>
@@ -3053,20 +2609,20 @@
     </row>
     <row r="147">
       <c r="A147" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="s">
-        <v>173</v>
+        <v>153</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="s">
-        <v>174</v>
+        <v>154</v>
       </c>
       <c r="B149" t="s">
-        <v>19</v>
+        <v>74</v>
       </c>
       <c r="C149" t="n">
         <v>286.54646251875295</v>
@@ -3074,10 +2630,10 @@
     </row>
     <row r="150">
       <c r="A150" t="s">
-        <v>175</v>
+        <v>155</v>
       </c>
       <c r="B150" t="s">
-        <v>19</v>
+        <v>74</v>
       </c>
       <c r="C150" t="n">
         <v>238.34927482104573</v>
@@ -3085,10 +2641,10 @@
     </row>
     <row r="151">
       <c r="A151" t="s">
-        <v>176</v>
+        <v>156</v>
       </c>
       <c r="B151" t="s">
-        <v>19</v>
+        <v>74</v>
       </c>
       <c r="C151" t="n">
         <v>219.99999999999994</v>
@@ -3096,10 +2652,10 @@
     </row>
     <row r="152">
       <c r="A152" t="s">
-        <v>177</v>
+        <v>157</v>
       </c>
       <c r="B152" t="s">
-        <v>19</v>
+        <v>74</v>
       </c>
       <c r="C152" t="n">
         <v>219.99999999999994</v>
@@ -3107,10 +2663,10 @@
     </row>
     <row r="153">
       <c r="A153" t="s">
-        <v>178</v>
+        <v>158</v>
       </c>
       <c r="B153" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C153" t="n">
         <v>0.4609430194876741</v>
@@ -3118,10 +2674,10 @@
     </row>
     <row r="154">
       <c r="A154" t="s">
-        <v>179</v>
+        <v>159</v>
       </c>
       <c r="B154" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C154" t="n">
         <v>0.3622005138224198</v>
@@ -3129,10 +2685,10 @@
     </row>
     <row r="155">
       <c r="A155" t="s">
-        <v>180</v>
+        <v>160</v>
       </c>
       <c r="B155" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C155" t="n">
         <v>0.41440063481617906</v>
@@ -3140,10 +2696,10 @@
     </row>
     <row r="156">
       <c r="A156" t="s">
-        <v>181</v>
+        <v>161</v>
       </c>
       <c r="B156" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C156" t="n">
         <v>0.4119435524157565</v>
@@ -3151,10 +2707,10 @@
     </row>
     <row r="157">
       <c r="A157" t="s">
-        <v>182</v>
+        <v>162</v>
       </c>
       <c r="B157" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C157" t="n">
         <v>0.03349465553238216</v>
@@ -3162,10 +2718,10 @@
     </row>
     <row r="158">
       <c r="A158" t="s">
-        <v>183</v>
+        <v>163</v>
       </c>
       <c r="B158" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C158" t="n">
         <v>0.03343073081104084</v>
@@ -3173,10 +2729,10 @@
     </row>
     <row r="159">
       <c r="A159" t="s">
-        <v>184</v>
+        <v>164</v>
       </c>
       <c r="B159" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C159" t="n">
         <v>12.372142009806383</v>
@@ -3184,10 +2740,10 @@
     </row>
     <row r="160">
       <c r="A160" t="s">
-        <v>185</v>
+        <v>165</v>
       </c>
       <c r="B160" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C160" t="n">
         <v>12.322301739204216</v>
@@ -3195,10 +2751,10 @@
     </row>
     <row r="161">
       <c r="A161" t="s">
-        <v>186</v>
+        <v>166</v>
       </c>
       <c r="B161" t="s">
-        <v>107</v>
+        <v>87</v>
       </c>
       <c r="C161" t="n">
         <v>1339.635766650615</v>
@@ -3206,10 +2762,10 @@
     </row>
     <row r="162">
       <c r="A162" t="s">
-        <v>187</v>
+        <v>167</v>
       </c>
       <c r="B162" t="s">
-        <v>107</v>
+        <v>87</v>
       </c>
       <c r="C162" t="n">
         <v>766.972117526236</v>
@@ -3217,10 +2773,10 @@
     </row>
     <row r="163">
       <c r="A163" t="s">
-        <v>188</v>
+        <v>168</v>
       </c>
       <c r="B163" t="s">
-        <v>107</v>
+        <v>87</v>
       </c>
       <c r="C163" t="n">
         <v>3603.905327194797</v>
@@ -3228,10 +2784,10 @@
     </row>
     <row r="164">
       <c r="A164" t="s">
-        <v>189</v>
+        <v>169</v>
       </c>
       <c r="B164" t="s">
-        <v>107</v>
+        <v>87</v>
       </c>
       <c r="C164" t="n">
         <v>3597.0272554511216</v>
@@ -3239,10 +2795,10 @@
     </row>
     <row r="165">
       <c r="A165" t="s">
-        <v>190</v>
+        <v>170</v>
       </c>
       <c r="B165" t="s">
-        <v>112</v>
+        <v>92</v>
       </c>
       <c r="C165" t="n">
         <v>-1471.6301479584722</v>
@@ -3250,10 +2806,10 @@
     </row>
     <row r="166">
       <c r="A166" t="s">
-        <v>191</v>
+        <v>171</v>
       </c>
       <c r="B166" t="s">
-        <v>112</v>
+        <v>92</v>
       </c>
       <c r="C166" t="n">
         <v>-1538.181914095127</v>
@@ -3261,10 +2817,10 @@
     </row>
     <row r="167">
       <c r="A167" t="s">
-        <v>192</v>
+        <v>172</v>
       </c>
       <c r="B167" t="s">
-        <v>115</v>
+        <v>95</v>
       </c>
       <c r="C167" t="n">
         <v>2.963041056867933</v>
@@ -3272,10 +2828,10 @@
     </row>
     <row r="168">
       <c r="A168" t="s">
-        <v>193</v>
+        <v>173</v>
       </c>
       <c r="B168" t="s">
-        <v>115</v>
+        <v>95</v>
       </c>
       <c r="C168" t="n">
         <v>3.56291302091424</v>
@@ -3283,10 +2839,10 @@
     </row>
     <row r="169">
       <c r="A169" t="s">
-        <v>194</v>
+        <v>174</v>
       </c>
       <c r="B169" t="s">
-        <v>118</v>
+        <v>98</v>
       </c>
       <c r="C169" t="n">
         <v>941.6458016971529</v>
@@ -3294,10 +2850,10 @@
     </row>
     <row r="170">
       <c r="A170" t="s">
-        <v>195</v>
+        <v>175</v>
       </c>
       <c r="B170" t="s">
-        <v>118</v>
+        <v>98</v>
       </c>
       <c r="C170" t="n">
         <v>839.6146464299679</v>
@@ -3305,10 +2861,10 @@
     </row>
     <row r="171">
       <c r="A171" t="s">
-        <v>196</v>
+        <v>176</v>
       </c>
       <c r="B171" t="s">
-        <v>121</v>
+        <v>101</v>
       </c>
       <c r="C171" t="n">
         <v>0.7029118101642472</v>
@@ -3316,10 +2872,10 @@
     </row>
     <row r="172">
       <c r="A172" t="s">
-        <v>197</v>
+        <v>177</v>
       </c>
       <c r="B172" t="s">
-        <v>121</v>
+        <v>101</v>
       </c>
       <c r="C172" t="n">
         <v>1.0947133895010819</v>
@@ -3327,20 +2883,20 @@
     </row>
     <row r="173">
       <c r="A173" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="s">
-        <v>198</v>
+        <v>178</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="s">
-        <v>199</v>
+        <v>179</v>
       </c>
       <c r="B175" t="s">
-        <v>19</v>
+        <v>74</v>
       </c>
       <c r="C175" t="n">
         <v>170.1244259722182</v>
@@ -3348,10 +2904,10 @@
     </row>
     <row r="176">
       <c r="A176" t="s">
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="B176" t="s">
-        <v>19</v>
+        <v>74</v>
       </c>
       <c r="C176" t="n">
         <v>221.42228217081782</v>
@@ -3359,10 +2915,10 @@
     </row>
     <row r="177">
       <c r="A177" t="s">
-        <v>201</v>
+        <v>181</v>
       </c>
       <c r="B177" t="s">
-        <v>19</v>
+        <v>74</v>
       </c>
       <c r="C177" t="n">
         <v>169.99999999999994</v>
@@ -3370,10 +2926,10 @@
     </row>
     <row r="178">
       <c r="A178" t="s">
-        <v>202</v>
+        <v>182</v>
       </c>
       <c r="B178" t="s">
-        <v>19</v>
+        <v>74</v>
       </c>
       <c r="C178" t="n">
         <v>169.99999999999994</v>
@@ -3381,10 +2937,10 @@
     </row>
     <row r="179">
       <c r="A179" t="s">
-        <v>203</v>
+        <v>183</v>
       </c>
       <c r="B179" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C179" t="n">
         <v>0.2585246149674495</v>
@@ -3392,10 +2948,10 @@
     </row>
     <row r="180">
       <c r="A180" t="s">
-        <v>204</v>
+        <v>184</v>
       </c>
       <c r="B180" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C180" t="n">
         <v>0.3468694897509303</v>
@@ -3403,10 +2959,10 @@
     </row>
     <row r="181">
       <c r="A181" t="s">
-        <v>205</v>
+        <v>185</v>
       </c>
       <c r="B181" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C181" t="n">
         <v>0.7103344042273395</v>
@@ -3414,10 +2970,10 @@
     </row>
     <row r="182">
       <c r="A182" t="s">
-        <v>206</v>
+        <v>186</v>
       </c>
       <c r="B182" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C182" t="n">
         <v>0.7083505081136645</v>
@@ -3425,10 +2981,10 @@
     </row>
     <row r="183">
       <c r="A183" t="s">
-        <v>207</v>
+        <v>187</v>
       </c>
       <c r="B183" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C183" t="n">
         <v>0.0441282193436296</v>
@@ -3436,10 +2992,10 @@
     </row>
     <row r="184">
       <c r="A184" t="s">
-        <v>208</v>
+        <v>188</v>
       </c>
       <c r="B184" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C184" t="n">
         <v>0.044037021562835114</v>
@@ -3447,10 +3003,10 @@
     </row>
     <row r="185">
       <c r="A185" t="s">
-        <v>209</v>
+        <v>189</v>
       </c>
       <c r="B185" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C185" t="n">
         <v>16.097055688921294</v>
@@ -3458,10 +3014,10 @@
     </row>
     <row r="186">
       <c r="A186" t="s">
-        <v>210</v>
+        <v>190</v>
       </c>
       <c r="B186" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C186" t="n">
         <v>16.08534099207732</v>
@@ -3469,10 +3025,10 @@
     </row>
     <row r="187">
       <c r="A187" t="s">
-        <v>211</v>
+        <v>191</v>
       </c>
       <c r="B187" t="s">
-        <v>107</v>
+        <v>87</v>
       </c>
       <c r="C187" t="n">
         <v>7199.414490810045</v>
@@ -3480,10 +3036,10 @@
     </row>
     <row r="188">
       <c r="A188" t="s">
-        <v>212</v>
+        <v>192</v>
       </c>
       <c r="B188" t="s">
-        <v>107</v>
+        <v>87</v>
       </c>
       <c r="C188" t="n">
         <v>6274.189210039076</v>
@@ -3491,10 +3047,10 @@
     </row>
     <row r="189">
       <c r="A189" t="s">
-        <v>213</v>
+        <v>193</v>
       </c>
       <c r="B189" t="s">
-        <v>107</v>
+        <v>87</v>
       </c>
       <c r="C189" t="n">
         <v>2807.447353587028</v>
@@ -3502,10 +3058,10 @@
     </row>
     <row r="190">
       <c r="A190" t="s">
-        <v>214</v>
+        <v>194</v>
       </c>
       <c r="B190" t="s">
-        <v>107</v>
+        <v>87</v>
       </c>
       <c r="C190" t="n">
         <v>2735.5307956421775</v>
@@ -3513,10 +3069,10 @@
     </row>
     <row r="191">
       <c r="A191" t="s">
-        <v>215</v>
+        <v>195</v>
       </c>
       <c r="B191" t="s">
-        <v>112</v>
+        <v>92</v>
       </c>
       <c r="C191" t="n">
         <v>1653.7411467810034</v>
@@ -3524,10 +3080,10 @@
     </row>
     <row r="192">
       <c r="A192" t="s">
-        <v>216</v>
+        <v>196</v>
       </c>
       <c r="B192" t="s">
-        <v>112</v>
+        <v>92</v>
       </c>
       <c r="C192" t="n">
         <v>1066.5778031295508</v>
@@ -3535,10 +3091,10 @@
     </row>
     <row r="193">
       <c r="A193" t="s">
-        <v>217</v>
+        <v>197</v>
       </c>
       <c r="B193" t="s">
-        <v>115</v>
+        <v>95</v>
       </c>
       <c r="C193" t="n">
         <v>2.726457321254381</v>
@@ -3546,10 +3102,10 @@
     </row>
     <row r="194">
       <c r="A194" t="s">
-        <v>218</v>
+        <v>198</v>
       </c>
       <c r="B194" t="s">
-        <v>115</v>
+        <v>95</v>
       </c>
       <c r="C194" t="n">
         <v>0.0</v>
@@ -3557,10 +3113,10 @@
     </row>
     <row r="195">
       <c r="A195" t="s">
-        <v>219</v>
+        <v>199</v>
       </c>
       <c r="B195" t="s">
-        <v>118</v>
+        <v>98</v>
       </c>
       <c r="C195" t="n">
         <v>2244.8587176565834</v>
@@ -3568,10 +3124,10 @@
     </row>
     <row r="196">
       <c r="A196" t="s">
-        <v>220</v>
+        <v>200</v>
       </c>
       <c r="B196" t="s">
-        <v>118</v>
+        <v>98</v>
       </c>
       <c r="C196" t="n">
         <v>1922.1597814741226</v>
@@ -3579,10 +3135,10 @@
     </row>
     <row r="197">
       <c r="A197" t="s">
-        <v>221</v>
+        <v>201</v>
       </c>
       <c r="B197" t="s">
-        <v>121</v>
+        <v>101</v>
       </c>
       <c r="C197" t="n">
         <v>0.3118112897267014</v>
@@ -3590,10 +3146,10 @@
     </row>
     <row r="198">
       <c r="A198" t="s">
-        <v>222</v>
+        <v>202</v>
       </c>
       <c r="B198" t="s">
-        <v>121</v>
+        <v>101</v>
       </c>
       <c r="C198" t="n">
         <v>0.3063598685227013</v>
@@ -3601,20 +3157,20 @@
     </row>
     <row r="199">
       <c r="A199" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="s">
-        <v>223</v>
+        <v>203</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="s">
-        <v>224</v>
+        <v>204</v>
       </c>
       <c r="B201" t="s">
-        <v>19</v>
+        <v>74</v>
       </c>
       <c r="C201" t="n">
         <v>170.45650063015879</v>
@@ -3622,10 +3178,10 @@
     </row>
     <row r="202">
       <c r="A202" t="s">
-        <v>225</v>
+        <v>205</v>
       </c>
       <c r="B202" t="s">
-        <v>19</v>
+        <v>74</v>
       </c>
       <c r="C202" t="n">
         <v>170.1968101874073</v>
@@ -3633,10 +3189,10 @@
     </row>
     <row r="203">
       <c r="A203" t="s">
-        <v>226</v>
+        <v>206</v>
       </c>
       <c r="B203" t="s">
-        <v>19</v>
+        <v>74</v>
       </c>
       <c r="C203" t="n">
         <v>146.49248673934795</v>
@@ -3644,10 +3200,10 @@
     </row>
     <row r="204">
       <c r="A204" t="s">
-        <v>227</v>
+        <v>207</v>
       </c>
       <c r="B204" t="s">
-        <v>19</v>
+        <v>74</v>
       </c>
       <c r="C204" t="n">
         <v>146.26930546670377</v>
@@ -3655,10 +3211,10 @@
     </row>
     <row r="205">
       <c r="A205" t="s">
-        <v>228</v>
+        <v>208</v>
       </c>
       <c r="B205" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C205" t="n">
         <v>0.2670289494744662</v>
@@ -3666,10 +3222,10 @@
     </row>
     <row r="206">
       <c r="A206" t="s">
-        <v>229</v>
+        <v>209</v>
       </c>
       <c r="B206" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C206" t="n">
         <v>0.2666221309262728</v>
@@ -3677,10 +3233,10 @@
     </row>
     <row r="207">
       <c r="A207" t="s">
-        <v>230</v>
+        <v>210</v>
       </c>
       <c r="B207" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C207" t="n">
         <v>0.9285714285714294</v>
@@ -3688,10 +3244,10 @@
     </row>
     <row r="208">
       <c r="A208" t="s">
-        <v>231</v>
+        <v>211</v>
       </c>
       <c r="B208" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C208" t="n">
         <v>0.9285714285714295</v>
@@ -3699,10 +3255,10 @@
     </row>
     <row r="209">
       <c r="A209" t="s">
-        <v>232</v>
+        <v>212</v>
       </c>
       <c r="B209" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C209" t="n">
         <v>0.05555839714098076</v>
@@ -3710,10 +3266,10 @@
     </row>
     <row r="210">
       <c r="A210" t="s">
-        <v>233</v>
+        <v>213</v>
       </c>
       <c r="B210" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C210" t="n">
         <v>0.055558397140980764</v>
@@ -3721,10 +3277,10 @@
     </row>
     <row r="211">
       <c r="A211" t="s">
-        <v>234</v>
+        <v>214</v>
       </c>
       <c r="B211" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C211" t="n">
         <v>16.713430846738742</v>
@@ -3732,10 +3288,10 @@
     </row>
     <row r="212">
       <c r="A212" t="s">
-        <v>235</v>
+        <v>215</v>
       </c>
       <c r="B212" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C212" t="n">
         <v>16.713430846738742</v>
@@ -3743,10 +3299,10 @@
     </row>
     <row r="213">
       <c r="A213" t="s">
-        <v>236</v>
+        <v>216</v>
       </c>
       <c r="B213" t="s">
-        <v>107</v>
+        <v>87</v>
       </c>
       <c r="C213" t="n">
         <v>2650.5314902193104</v>
@@ -3754,10 +3310,10 @@
     </row>
     <row r="214">
       <c r="A214" t="s">
-        <v>237</v>
+        <v>217</v>
       </c>
       <c r="B214" t="s">
-        <v>107</v>
+        <v>87</v>
       </c>
       <c r="C214" t="n">
         <v>2642.461473907271</v>
@@ -3765,10 +3321,10 @@
     </row>
     <row r="215">
       <c r="A215" t="s">
-        <v>238</v>
+        <v>218</v>
       </c>
       <c r="B215" t="s">
-        <v>107</v>
+        <v>87</v>
       </c>
       <c r="C215" t="n">
         <v>2650.5314902193104</v>
@@ -3776,10 +3332,10 @@
     </row>
     <row r="216">
       <c r="A216" t="s">
-        <v>239</v>
+        <v>219</v>
       </c>
       <c r="B216" t="s">
-        <v>107</v>
+        <v>87</v>
       </c>
       <c r="C216" t="n">
         <v>2642.461473907271</v>
@@ -3787,10 +3343,10 @@
     </row>
     <row r="217">
       <c r="A217" t="s">
-        <v>240</v>
+        <v>220</v>
       </c>
       <c r="B217" t="s">
-        <v>112</v>
+        <v>92</v>
       </c>
       <c r="C217" t="n">
         <v>0.0</v>
@@ -3798,10 +3354,10 @@
     </row>
     <row r="218">
       <c r="A218" t="s">
-        <v>241</v>
+        <v>221</v>
       </c>
       <c r="B218" t="s">
-        <v>112</v>
+        <v>92</v>
       </c>
       <c r="C218" t="n">
         <v>0.0</v>
@@ -3809,10 +3365,10 @@
     </row>
     <row r="219">
       <c r="A219" t="s">
-        <v>242</v>
+        <v>222</v>
       </c>
       <c r="B219" t="s">
-        <v>115</v>
+        <v>95</v>
       </c>
       <c r="C219" t="n">
         <v>0.0</v>
@@ -3820,10 +3376,10 @@
     </row>
     <row r="220">
       <c r="A220" t="s">
-        <v>243</v>
+        <v>223</v>
       </c>
       <c r="B220" t="s">
-        <v>115</v>
+        <v>95</v>
       </c>
       <c r="C220" t="n">
         <v>0.0</v>
@@ -3831,10 +3387,10 @@
     </row>
     <row r="221">
       <c r="A221" t="s">
-        <v>244</v>
+        <v>224</v>
       </c>
       <c r="B221" t="s">
-        <v>118</v>
+        <v>98</v>
       </c>
       <c r="C221" t="n">
         <v>353.61657901907205</v>
@@ -3842,10 +3398,10 @@
     </row>
     <row r="222">
       <c r="A222" t="s">
-        <v>245</v>
+        <v>225</v>
       </c>
       <c r="B222" t="s">
-        <v>118</v>
+        <v>98</v>
       </c>
       <c r="C222" t="n">
         <v>350.78438003156083</v>
@@ -3853,10 +3409,10 @@
     </row>
     <row r="223">
       <c r="A223" t="s">
-        <v>246</v>
+        <v>226</v>
       </c>
       <c r="B223" t="s">
-        <v>121</v>
+        <v>101</v>
       </c>
       <c r="C223" t="n">
         <v>0.13341346078095948</v>
@@ -3864,10 +3420,10 @@
     </row>
     <row r="224">
       <c r="A224" t="s">
-        <v>247</v>
+        <v>227</v>
       </c>
       <c r="B224" t="s">
-        <v>121</v>
+        <v>101</v>
       </c>
       <c r="C224" t="n">
         <v>0.13274909908634322</v>
@@ -3875,20 +3431,20 @@
     </row>
     <row r="225">
       <c r="A225" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="s">
-        <v>248</v>
+        <v>228</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="s">
-        <v>249</v>
+        <v>229</v>
       </c>
       <c r="B227" t="s">
-        <v>19</v>
+        <v>74</v>
       </c>
       <c r="C227" t="n">
         <v>255.9887426167415</v>
@@ -3896,10 +3452,10 @@
     </row>
     <row r="228">
       <c r="A228" t="s">
-        <v>250</v>
+        <v>230</v>
       </c>
       <c r="B228" t="s">
-        <v>19</v>
+        <v>74</v>
       </c>
       <c r="C228" t="n">
         <v>232.1368190562223</v>
@@ -3907,10 +3463,10 @@
     </row>
     <row r="229">
       <c r="A229" t="s">
-        <v>251</v>
+        <v>231</v>
       </c>
       <c r="B229" t="s">
-        <v>19</v>
+        <v>74</v>
       </c>
       <c r="C229" t="n">
         <v>219.99999999999994</v>
@@ -3918,10 +3474,10 @@
     </row>
     <row r="230">
       <c r="A230" t="s">
-        <v>252</v>
+        <v>232</v>
       </c>
       <c r="B230" t="s">
-        <v>19</v>
+        <v>74</v>
       </c>
       <c r="C230" t="n">
         <v>219.99999999999994</v>
@@ -3929,10 +3485,10 @@
     </row>
     <row r="231">
       <c r="A231" t="s">
-        <v>253</v>
+        <v>233</v>
       </c>
       <c r="B231" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C231" t="n">
         <v>0.4010196429325484</v>
@@ -3940,10 +3496,10 @@
     </row>
     <row r="232">
       <c r="A232" t="s">
-        <v>254</v>
+        <v>234</v>
       </c>
       <c r="B232" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C232" t="n">
         <v>0.35275993687160867</v>
@@ -3951,10 +3507,10 @@
     </row>
     <row r="233">
       <c r="A233" t="s">
-        <v>255</v>
+        <v>235</v>
       </c>
       <c r="B233" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C233" t="n">
         <v>0.4101962214151851</v>
@@ -3962,10 +3518,10 @@
     </row>
     <row r="234">
       <c r="A234" t="s">
-        <v>256</v>
+        <v>236</v>
       </c>
       <c r="B234" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C234" t="n">
         <v>0.40889938067268844</v>
@@ -3973,10 +3529,10 @@
     </row>
     <row r="235">
       <c r="A235" t="s">
-        <v>257</v>
+        <v>237</v>
       </c>
       <c r="B235" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C235" t="n">
         <v>0.03338527134770198</v>
@@ -3984,10 +3540,10 @@
     </row>
     <row r="236">
       <c r="A236" t="s">
-        <v>258</v>
+        <v>238</v>
       </c>
       <c r="B236" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C236" t="n">
         <v>0.033351532070959</v>
@@ -3995,10 +3551,10 @@
     </row>
     <row r="237">
       <c r="A237" t="s">
-        <v>259</v>
+        <v>239</v>
       </c>
       <c r="B237" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C237" t="n">
         <v>12.28674217271025</v>
@@ -4006,10 +3562,10 @@
     </row>
     <row r="238">
       <c r="A238" t="s">
-        <v>260</v>
+        <v>240</v>
       </c>
       <c r="B238" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C238" t="n">
         <v>12.260287767371846</v>
@@ -4017,10 +3573,10 @@
     </row>
     <row r="239">
       <c r="A239" t="s">
-        <v>261</v>
+        <v>241</v>
       </c>
       <c r="B239" t="s">
-        <v>107</v>
+        <v>87</v>
       </c>
       <c r="C239" t="n">
         <v>1046.789871415094</v>
@@ -4028,10 +3584,10 @@
     </row>
     <row r="240">
       <c r="A240" t="s">
-        <v>262</v>
+        <v>242</v>
       </c>
       <c r="B240" t="s">
-        <v>107</v>
+        <v>87</v>
       </c>
       <c r="C240" t="n">
         <v>667.6022760685154</v>
@@ -4039,10 +3595,10 @@
     </row>
     <row r="241">
       <c r="A241" t="s">
-        <v>263</v>
+        <v>243</v>
       </c>
       <c r="B241" t="s">
-        <v>107</v>
+        <v>87</v>
       </c>
       <c r="C241" t="n">
         <v>3592.135979529806</v>
@@ -4050,10 +3606,10 @@
     </row>
     <row r="242">
       <c r="A242" t="s">
-        <v>264</v>
+        <v>244</v>
       </c>
       <c r="B242" t="s">
-        <v>107</v>
+        <v>87</v>
       </c>
       <c r="C242" t="n">
         <v>3588.5057538338842</v>
@@ -4061,10 +3617,10 @@
     </row>
     <row r="243">
       <c r="A243" t="s">
-        <v>265</v>
+        <v>245</v>
       </c>
       <c r="B243" t="s">
-        <v>112</v>
+        <v>92</v>
       </c>
       <c r="C243" t="n">
         <v>-1492.5357047748998</v>
@@ -4072,10 +3628,10 @@
     </row>
     <row r="244">
       <c r="A244" t="s">
-        <v>266</v>
+        <v>246</v>
       </c>
       <c r="B244" t="s">
-        <v>112</v>
+        <v>92</v>
       </c>
       <c r="C244" t="n">
         <v>-1557.5277500880907</v>
@@ -4083,10 +3639,10 @@
     </row>
     <row r="245">
       <c r="A245" t="s">
-        <v>267</v>
+        <v>247</v>
       </c>
       <c r="B245" t="s">
-        <v>115</v>
+        <v>95</v>
       </c>
       <c r="C245" t="n">
         <v>3.317117783407943</v>
@@ -4094,10 +3650,10 @@
     </row>
     <row r="246">
       <c r="A246" t="s">
-        <v>268</v>
+        <v>248</v>
       </c>
       <c r="B246" t="s">
-        <v>115</v>
+        <v>95</v>
       </c>
       <c r="C246" t="n">
         <v>3.6583919486306176</v>
@@ -4105,10 +3661,10 @@
     </row>
     <row r="247">
       <c r="A247" t="s">
-        <v>269</v>
+        <v>249</v>
       </c>
       <c r="B247" t="s">
-        <v>118</v>
+        <v>98</v>
       </c>
       <c r="C247" t="n">
         <v>882.5573273629689</v>
@@ -4116,10 +3672,10 @@
     </row>
     <row r="248">
       <c r="A248" t="s">
-        <v>270</v>
+        <v>250</v>
       </c>
       <c r="B248" t="s">
-        <v>118</v>
+        <v>98</v>
       </c>
       <c r="C248" t="n">
         <v>831.0389170431338</v>
@@ -4127,10 +3683,10 @@
     </row>
     <row r="249">
       <c r="A249" t="s">
-        <v>271</v>
+        <v>251</v>
       </c>
       <c r="B249" t="s">
-        <v>121</v>
+        <v>101</v>
       </c>
       <c r="C249" t="n">
         <v>0.8431083940178856</v>
@@ -4138,10 +3694,10 @@
     </row>
     <row r="250">
       <c r="A250" t="s">
-        <v>272</v>
+        <v>252</v>
       </c>
       <c r="B250" t="s">
-        <v>121</v>
+        <v>101</v>
       </c>
       <c r="C250" t="n">
         <v>1.244811389705096</v>
@@ -4149,20 +3705,20 @@
     </row>
     <row r="251">
       <c r="A251" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="s">
-        <v>273</v>
+        <v>253</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="s">
-        <v>274</v>
+        <v>254</v>
       </c>
       <c r="B253" t="s">
-        <v>19</v>
+        <v>74</v>
       </c>
       <c r="C253" t="n">
         <v>149.47075799100207</v>
@@ -4170,10 +3726,10 @@
     </row>
     <row r="254">
       <c r="A254" t="s">
-        <v>275</v>
+        <v>255</v>
       </c>
       <c r="B254" t="s">
-        <v>19</v>
+        <v>74</v>
       </c>
       <c r="C254" t="n">
         <v>149.47075799100207</v>
@@ -4181,10 +3737,10 @@
     </row>
     <row r="255">
       <c r="A255" t="s">
-        <v>276</v>
+        <v>256</v>
       </c>
       <c r="B255" t="s">
-        <v>19</v>
+        <v>74</v>
       </c>
       <c r="C255" t="n">
         <v>146.20974098737986</v>
@@ -4192,10 +3748,10 @@
     </row>
     <row r="256">
       <c r="A256" t="s">
-        <v>277</v>
+        <v>257</v>
       </c>
       <c r="B256" t="s">
-        <v>19</v>
+        <v>74</v>
       </c>
       <c r="C256" t="n">
         <v>146.20974098737986</v>
@@ -4203,10 +3759,10 @@
     </row>
     <row r="257">
       <c r="A257" t="s">
-        <v>278</v>
+        <v>258</v>
       </c>
       <c r="B257" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C257" t="n">
         <v>0.22713887166812224</v>
@@ -4214,10 +3770,10 @@
     </row>
     <row r="258">
       <c r="A258" t="s">
-        <v>279</v>
+        <v>259</v>
       </c>
       <c r="B258" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C258" t="n">
         <v>0.22713887166812224</v>
@@ -4225,10 +3781,10 @@
     </row>
     <row r="259">
       <c r="A259" t="s">
-        <v>280</v>
+        <v>260</v>
       </c>
       <c r="B259" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C259" t="n">
         <v>0.9285714285714293</v>
@@ -4236,10 +3792,10 @@
     </row>
     <row r="260">
       <c r="A260" t="s">
-        <v>281</v>
+        <v>261</v>
       </c>
       <c r="B260" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C260" t="n">
         <v>0.922421778382658</v>
@@ -4247,10 +3803,10 @@
     </row>
     <row r="261">
       <c r="A261" t="s">
-        <v>282</v>
+        <v>262</v>
       </c>
       <c r="B261" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C261" t="n">
         <v>0.05555839714098075</v>
@@ -4258,10 +3814,10 @@
     </row>
     <row r="262">
       <c r="A262" t="s">
-        <v>283</v>
+        <v>263</v>
       </c>
       <c r="B262" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C262" t="n">
         <v>0.05519390302461928</v>
@@ -4269,10 +3825,10 @@
     </row>
     <row r="263">
       <c r="A263" t="s">
-        <v>284</v>
+        <v>264</v>
       </c>
       <c r="B263" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C263" t="n">
         <v>16.713430846738742</v>
@@ -4280,10 +3836,10 @@
     </row>
     <row r="264">
       <c r="A264" t="s">
-        <v>285</v>
+        <v>265</v>
       </c>
       <c r="B264" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C264" t="n">
         <v>16.712385387407938</v>
@@ -4291,10 +3847,10 @@
     </row>
     <row r="265">
       <c r="A265" t="s">
-        <v>286</v>
+        <v>266</v>
       </c>
       <c r="B265" t="s">
-        <v>107</v>
+        <v>87</v>
       </c>
       <c r="C265" t="n">
         <v>2640.309760758964</v>
@@ -4302,10 +3858,10 @@
     </row>
     <row r="266">
       <c r="A266" t="s">
-        <v>287</v>
+        <v>267</v>
       </c>
       <c r="B266" t="s">
-        <v>107</v>
+        <v>87</v>
       </c>
       <c r="C266" t="n">
         <v>2622.987854032131</v>
@@ -4313,10 +3869,10 @@
     </row>
     <row r="267">
       <c r="A267" t="s">
-        <v>288</v>
+        <v>268</v>
       </c>
       <c r="B267" t="s">
-        <v>107</v>
+        <v>87</v>
       </c>
       <c r="C267" t="n">
         <v>2640.309760758964</v>
@@ -4324,10 +3880,10 @@
     </row>
     <row r="268">
       <c r="A268" t="s">
-        <v>289</v>
+        <v>269</v>
       </c>
       <c r="B268" t="s">
-        <v>107</v>
+        <v>87</v>
       </c>
       <c r="C268" t="n">
         <v>2622.987854032131</v>
@@ -4335,10 +3891,10 @@
     </row>
     <row r="269">
       <c r="A269" t="s">
-        <v>290</v>
+        <v>270</v>
       </c>
       <c r="B269" t="s">
-        <v>112</v>
+        <v>92</v>
       </c>
       <c r="C269" t="n">
         <v>0.0</v>
@@ -4346,10 +3902,10 @@
     </row>
     <row r="270">
       <c r="A270" t="s">
-        <v>291</v>
+        <v>271</v>
       </c>
       <c r="B270" t="s">
-        <v>112</v>
+        <v>92</v>
       </c>
       <c r="C270" t="n">
         <v>0.0</v>
@@ -4357,10 +3913,10 @@
     </row>
     <row r="271">
       <c r="A271" t="s">
-        <v>292</v>
+        <v>272</v>
       </c>
       <c r="B271" t="s">
-        <v>115</v>
+        <v>95</v>
       </c>
       <c r="C271" t="n">
         <v>0.0</v>
@@ -4368,10 +3924,10 @@
     </row>
     <row r="272">
       <c r="A272" t="s">
-        <v>293</v>
+        <v>273</v>
       </c>
       <c r="B272" t="s">
-        <v>115</v>
+        <v>95</v>
       </c>
       <c r="C272" t="n">
         <v>0.0</v>
@@ -4379,10 +3935,10 @@
     </row>
     <row r="273">
       <c r="A273" t="s">
-        <v>294</v>
+        <v>274</v>
       </c>
       <c r="B273" t="s">
-        <v>118</v>
+        <v>98</v>
       </c>
       <c r="C273" t="n">
         <v>260.24726585986554</v>
@@ -4390,10 +3946,10 @@
     </row>
     <row r="274">
       <c r="A274" t="s">
-        <v>295</v>
+        <v>275</v>
       </c>
       <c r="B274" t="s">
-        <v>118</v>
+        <v>98</v>
       </c>
       <c r="C274" t="n">
         <v>256.8437323030724</v>
@@ -4401,10 +3957,10 @@
     </row>
     <row r="275">
       <c r="A275" t="s">
-        <v>296</v>
+        <v>276</v>
       </c>
       <c r="B275" t="s">
-        <v>121</v>
+        <v>101</v>
       </c>
       <c r="C275" t="n">
         <v>0.09856694457890304</v>
@@ -4412,10 +3968,10 @@
     </row>
     <row r="276">
       <c r="A276" t="s">
-        <v>297</v>
+        <v>277</v>
       </c>
       <c r="B276" t="s">
-        <v>121</v>
+        <v>101</v>
       </c>
       <c r="C276" t="n">
         <v>0.097920290369719</v>
@@ -4423,20 +3979,20 @@
     </row>
     <row r="277">
       <c r="A277" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="s">
-        <v>298</v>
+        <v>278</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="s">
-        <v>299</v>
+        <v>279</v>
       </c>
       <c r="B279" t="s">
-        <v>19</v>
+        <v>74</v>
       </c>
       <c r="C279" t="n">
         <v>224.90679627393837</v>
@@ -4444,10 +4000,10 @@
     </row>
     <row r="280">
       <c r="A280" t="s">
-        <v>300</v>
+        <v>280</v>
       </c>
       <c r="B280" t="s">
-        <v>19</v>
+        <v>74</v>
       </c>
       <c r="C280" t="n">
         <v>221.33361546517457</v>
@@ -4455,10 +4011,10 @@
     </row>
     <row r="281">
       <c r="A281" t="s">
-        <v>301</v>
+        <v>281</v>
       </c>
       <c r="B281" t="s">
-        <v>19</v>
+        <v>74</v>
       </c>
       <c r="C281" t="n">
         <v>219.99999999999994</v>
@@ -4466,10 +4022,10 @@
     </row>
     <row r="282">
       <c r="A282" t="s">
-        <v>302</v>
+        <v>282</v>
       </c>
       <c r="B282" t="s">
-        <v>19</v>
+        <v>74</v>
       </c>
       <c r="C282" t="n">
         <v>219.99999999999994</v>
@@ -4477,10 +4033,10 @@
     </row>
     <row r="283">
       <c r="A283" t="s">
-        <v>303</v>
+        <v>283</v>
       </c>
       <c r="B283" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C283" t="n">
         <v>0.3417730439236138</v>
@@ -4488,10 +4044,10 @@
     </row>
     <row r="284">
       <c r="A284" t="s">
-        <v>304</v>
+        <v>284</v>
       </c>
       <c r="B284" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C284" t="n">
         <v>0.3346619068734856</v>
@@ -4499,10 +4055,10 @@
     </row>
     <row r="285">
       <c r="A285" t="s">
-        <v>305</v>
+        <v>285</v>
       </c>
       <c r="B285" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C285" t="n">
         <v>0.40744034391749767</v>
@@ -4510,10 +4066,10 @@
     </row>
     <row r="286">
       <c r="A286" t="s">
-        <v>306</v>
+        <v>286</v>
       </c>
       <c r="B286" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C286" t="n">
         <v>0.4072408610930771</v>
@@ -4521,10 +4077,10 @@
     </row>
     <row r="287">
       <c r="A287" t="s">
-        <v>307</v>
+        <v>287</v>
       </c>
       <c r="B287" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C287" t="n">
         <v>0.033313573019204665</v>
@@ -4532,10 +4088,10 @@
     </row>
     <row r="288">
       <c r="A288" t="s">
-        <v>308</v>
+        <v>288</v>
       </c>
       <c r="B288" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C288" t="n">
         <v>0.03330838317129347</v>
@@ -4543,10 +4099,10 @@
     </row>
     <row r="289">
       <c r="A289" t="s">
-        <v>309</v>
+        <v>289</v>
       </c>
       <c r="B289" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C289" t="n">
         <v>12.230460649856315</v>
@@ -4554,10 +4110,10 @@
     </row>
     <row r="290">
       <c r="A290" t="s">
-        <v>310</v>
+        <v>290</v>
       </c>
       <c r="B290" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C290" t="n">
         <v>12.226377335662873</v>
@@ -4565,10 +4121,10 @@
     </row>
     <row r="291">
       <c r="A291" t="s">
-        <v>311</v>
+        <v>291</v>
       </c>
       <c r="B291" t="s">
-        <v>107</v>
+        <v>87</v>
       </c>
       <c r="C291" t="n">
         <v>552.877448774489</v>
@@ -4576,10 +4132,10 @@
     </row>
     <row r="292">
       <c r="A292" t="s">
-        <v>312</v>
+        <v>292</v>
       </c>
       <c r="B292" t="s">
-        <v>107</v>
+        <v>87</v>
       </c>
       <c r="C292" t="n">
         <v>-748.3172178583595</v>
@@ -4587,10 +4143,10 @@
     </row>
     <row r="293">
       <c r="A293" t="s">
-        <v>313</v>
+        <v>293</v>
       </c>
       <c r="B293" t="s">
-        <v>107</v>
+        <v>87</v>
       </c>
       <c r="C293" t="n">
         <v>3584.4214954153895</v>
@@ -4598,10 +4154,10 @@
     </row>
     <row r="294">
       <c r="A294" t="s">
-        <v>314</v>
+        <v>294</v>
       </c>
       <c r="B294" t="s">
-        <v>107</v>
+        <v>87</v>
       </c>
       <c r="C294" t="n">
         <v>3583.8630863128856</v>
@@ -4609,10 +4165,10 @@
     </row>
     <row r="295">
       <c r="A295" t="s">
-        <v>315</v>
+        <v>295</v>
       </c>
       <c r="B295" t="s">
-        <v>112</v>
+        <v>92</v>
       </c>
       <c r="C295" t="n">
         <v>-1571.5762030740807</v>
@@ -4620,10 +4176,10 @@
     </row>
     <row r="296">
       <c r="A296" t="s">
-        <v>316</v>
+        <v>296</v>
       </c>
       <c r="B296" t="s">
-        <v>112</v>
+        <v>92</v>
       </c>
       <c r="C296" t="n">
         <v>-2211.0816239004657</v>
@@ -4631,10 +4187,10 @@
     </row>
     <row r="297">
       <c r="A297" t="s">
-        <v>317</v>
+        <v>297</v>
       </c>
       <c r="B297" t="s">
-        <v>115</v>
+        <v>95</v>
       </c>
       <c r="C297" t="n">
         <v>3.7761652707280415</v>
@@ -4642,10 +4198,10 @@
     </row>
     <row r="298">
       <c r="A298" t="s">
-        <v>318</v>
+        <v>298</v>
       </c>
       <c r="B298" t="s">
-        <v>115</v>
+        <v>95</v>
       </c>
       <c r="C298" t="n">
         <v>3.837217764949603</v>
@@ -4653,10 +4209,10 @@
     </row>
     <row r="299">
       <c r="A299" t="s">
-        <v>319</v>
+        <v>299</v>
       </c>
       <c r="B299" t="s">
-        <v>118</v>
+        <v>98</v>
       </c>
       <c r="C299" t="n">
         <v>819.3904167856963</v>
@@ -4664,10 +4220,10 @@
     </row>
     <row r="300">
       <c r="A300" t="s">
-        <v>320</v>
+        <v>300</v>
       </c>
       <c r="B300" t="s">
-        <v>118</v>
+        <v>98</v>
       </c>
       <c r="C300" t="n">
         <v>473.7506597426794</v>
@@ -4675,10 +4231,10 @@
     </row>
     <row r="301">
       <c r="A301" t="s">
-        <v>321</v>
+        <v>301</v>
       </c>
       <c r="B301" t="s">
-        <v>121</v>
+        <v>101</v>
       </c>
       <c r="C301" t="n">
         <v>1.4820470948886797</v>
@@ -4686,10 +4242,10 @@
     </row>
     <row r="302">
       <c r="A302" t="s">
-        <v>322</v>
+        <v>302</v>
       </c>
       <c r="B302" t="s">
-        <v>121</v>
+        <v>101</v>
       </c>
       <c r="C302" t="n">
         <v>-0.6330880119243097</v>
@@ -4697,20 +4253,20 @@
     </row>
     <row r="303">
       <c r="A303" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="s">
-        <v>323</v>
+        <v>303</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="s">
-        <v>324</v>
+        <v>304</v>
       </c>
       <c r="B305" t="s">
-        <v>19</v>
+        <v>74</v>
       </c>
       <c r="C305" t="n">
         <v>111.62232660211603</v>
@@ -4718,10 +4274,10 @@
     </row>
     <row r="306">
       <c r="A306" t="s">
-        <v>325</v>
+        <v>305</v>
       </c>
       <c r="B306" t="s">
-        <v>19</v>
+        <v>74</v>
       </c>
       <c r="C306" t="n">
         <v>-2.0426627304605527E-9</v>
@@ -4729,10 +4285,10 @@
     </row>
     <row r="307">
       <c r="A307" t="s">
-        <v>326</v>
+        <v>306</v>
       </c>
       <c r="B307" t="s">
-        <v>19</v>
+        <v>74</v>
       </c>
       <c r="C307" t="n">
         <v>111.54068802241555</v>
@@ -4740,10 +4296,10 @@
     </row>
     <row r="308">
       <c r="A308" t="s">
-        <v>327</v>
+        <v>307</v>
       </c>
       <c r="B308" t="s">
-        <v>19</v>
+        <v>74</v>
       </c>
       <c r="C308" t="n">
         <v>-2.0411687633555993E-9</v>
@@ -4751,10 +4307,10 @@
     </row>
     <row r="309">
       <c r="A309" t="s">
-        <v>328</v>
+        <v>308</v>
       </c>
       <c r="B309" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C309" t="n">
         <v>0.16877572162641893</v>
@@ -4762,10 +4318,10 @@
     </row>
     <row r="310">
       <c r="A310" t="s">
-        <v>329</v>
+        <v>309</v>
       </c>
       <c r="B310" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C310" t="n">
         <v>-3.0880256901788063E-12</v>
@@ -4773,10 +4329,10 @@
     </row>
     <row r="311">
       <c r="A311" t="s">
-        <v>330</v>
+        <v>310</v>
       </c>
       <c r="B311" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C311" t="n">
         <v>1.5881210653556062</v>
@@ -4784,10 +4340,10 @@
     </row>
     <row r="312">
       <c r="A312" t="s">
-        <v>331</v>
+        <v>311</v>
       </c>
       <c r="B312" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C312" t="n">
         <v>1.4387</v>
@@ -4795,10 +4351,10 @@
     </row>
     <row r="313">
       <c r="A313" t="s">
-        <v>332</v>
+        <v>312</v>
       </c>
       <c r="B313" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C313" t="n">
         <v>0.2039320567227733</v>
@@ -4806,10 +4362,10 @@
     </row>
     <row r="314">
       <c r="A314" t="s">
-        <v>333</v>
+        <v>313</v>
       </c>
       <c r="B314" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C314" t="n">
         <v>0.18892416466859402</v>
@@ -4817,10 +4373,10 @@
     </row>
     <row r="315">
       <c r="A315" t="s">
-        <v>334</v>
+        <v>314</v>
       </c>
       <c r="B315" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C315" t="n">
         <v>7.787500851396351</v>
@@ -4828,10 +4384,10 @@
     </row>
     <row r="316">
       <c r="A316" t="s">
-        <v>335</v>
+        <v>315</v>
       </c>
       <c r="B316" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C316" t="n">
         <v>7.615224884141905</v>
@@ -4839,10 +4395,10 @@
     </row>
     <row r="317">
       <c r="A317" t="s">
-        <v>336</v>
+        <v>316</v>
       </c>
       <c r="B317" t="s">
-        <v>107</v>
+        <v>87</v>
       </c>
       <c r="C317" t="n">
         <v>-2299.831263301281</v>
@@ -4850,10 +4406,10 @@
     </row>
     <row r="318">
       <c r="A318" t="s">
-        <v>337</v>
+        <v>317</v>
       </c>
       <c r="B318" t="s">
-        <v>107</v>
+        <v>87</v>
       </c>
       <c r="C318" t="n">
         <v>220.2199999999999</v>
@@ -4861,10 +4417,10 @@
     </row>
     <row r="319">
       <c r="A319" t="s">
-        <v>338</v>
+        <v>318</v>
       </c>
       <c r="B319" t="s">
-        <v>107</v>
+        <v>87</v>
       </c>
       <c r="C319" t="n">
         <v>5640.332352395745</v>
@@ -4872,10 +4428,10 @@
     </row>
     <row r="320">
       <c r="A320" t="s">
-        <v>339</v>
+        <v>319</v>
       </c>
       <c r="B320" t="s">
-        <v>107</v>
+        <v>87</v>
       </c>
       <c r="C320" t="n">
         <v>1.4814863457203206E-18</v>
@@ -4883,10 +4439,10 @@
     </row>
     <row r="321">
       <c r="A321" t="s">
-        <v>340</v>
+        <v>320</v>
       </c>
       <c r="B321" t="s">
-        <v>112</v>
+        <v>92</v>
       </c>
       <c r="C321" t="n">
         <v>0.0</v>
@@ -4894,10 +4450,10 @@
     </row>
     <row r="322">
       <c r="A322" t="s">
-        <v>341</v>
+        <v>321</v>
       </c>
       <c r="B322" t="s">
-        <v>112</v>
+        <v>92</v>
       </c>
       <c r="C322" t="n">
         <v>0.0</v>
@@ -4905,10 +4461,10 @@
     </row>
     <row r="323">
       <c r="A323" t="s">
-        <v>342</v>
+        <v>322</v>
       </c>
       <c r="B323" t="s">
-        <v>115</v>
+        <v>95</v>
       </c>
       <c r="C323" t="n">
         <v>-3.0</v>
@@ -4916,10 +4472,10 @@
     </row>
     <row r="324">
       <c r="A324" t="s">
-        <v>343</v>
+        <v>323</v>
       </c>
       <c r="B324" t="s">
-        <v>115</v>
+        <v>95</v>
       </c>
       <c r="C324" t="n">
         <v>0.0</v>
@@ -4927,10 +4483,10 @@
     </row>
     <row r="325">
       <c r="A325" t="s">
-        <v>344</v>
+        <v>324</v>
       </c>
       <c r="B325" t="s">
-        <v>118</v>
+        <v>98</v>
       </c>
       <c r="C325" t="n">
         <v>350.52756944861096</v>
@@ -4938,10 +4494,10 @@
     </row>
     <row r="326">
       <c r="A326" t="s">
-        <v>345</v>
+        <v>325</v>
       </c>
       <c r="B326" t="s">
-        <v>118</v>
+        <v>98</v>
       </c>
       <c r="C326" t="n">
         <v>350.52756944861096</v>
@@ -4949,10 +4505,10 @@
     </row>
     <row r="327">
       <c r="A327" t="s">
-        <v>346</v>
+        <v>326</v>
       </c>
       <c r="B327" t="s">
-        <v>121</v>
+        <v>101</v>
       </c>
       <c r="C327" t="n">
         <v>-0.15241447276677506</v>
@@ -4960,10 +4516,10 @@
     </row>
     <row r="328">
       <c r="A328" t="s">
-        <v>347</v>
+        <v>327</v>
       </c>
       <c r="B328" t="s">
-        <v>121</v>
+        <v>101</v>
       </c>
       <c r="C328" t="n">
         <v>1.5917154184388842</v>
